--- a/GOOGL/GOOGL - Working Capital Ratio.xlsx
+++ b/GOOGL/GOOGL - Working Capital Ratio.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1001566\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YiLong/Desktop/SUTD/Term 9 (SUTD)/50.038 - Computational Data Science/Project/cds/GOOGL/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28EAF9A-ACDC-7B4E-9877-62BF1D293ED0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="-105" windowWidth="14850" windowHeight="12735"/>
+    <workbookView xWindow="10400" yWindow="460" windowWidth="14860" windowHeight="12740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Working Capital" sheetId="2" r:id="rId1"/>
@@ -357,9 +358,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1002,7 +1003,7 @@
     <xf numFmtId="0" fontId="6" fillId="33" borderId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="1" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="1" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="34" borderId="2">
@@ -1011,7 +1012,7 @@
     <xf numFmtId="3" fontId="7" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="7" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="34" borderId="2">
@@ -1042,7 +1043,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="5" xfId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="1" fillId="34" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="34" borderId="2" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="34" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1051,7 +1052,7 @@
     <xf numFmtId="3" fontId="7" fillId="34" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="34" borderId="2" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="34" borderId="2" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="34" borderId="2" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1084,24 +1085,24 @@
     <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="blp_column_header" xfId="26"/>
-    <cellStyle name="blp_title_header_row_left" xfId="50"/>
+    <cellStyle name="blp_column_header" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="blp_title_header_row_left" xfId="50" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Calculation" xfId="27" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="28" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="29" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="fa_column_header_bottom" xfId="30"/>
-    <cellStyle name="fa_column_header_bottom_left" xfId="51"/>
-    <cellStyle name="fa_column_header_empty" xfId="31"/>
-    <cellStyle name="fa_column_header_top" xfId="32"/>
-    <cellStyle name="fa_column_header_top_left" xfId="33"/>
-    <cellStyle name="fa_data_bold_0_grouped" xfId="54"/>
-    <cellStyle name="fa_data_bold_1_grouped" xfId="55"/>
-    <cellStyle name="fa_data_bold_2_grouped" xfId="56"/>
-    <cellStyle name="fa_data_standard_1_grouped" xfId="52"/>
-    <cellStyle name="fa_data_standard_2_grouped" xfId="53"/>
-    <cellStyle name="fa_footer_italic" xfId="34"/>
-    <cellStyle name="fa_row_header_bold" xfId="35"/>
-    <cellStyle name="fa_row_header_standard" xfId="36"/>
+    <cellStyle name="fa_column_header_bottom" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="fa_column_header_bottom_left" xfId="51" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="fa_column_header_empty" xfId="31" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="fa_column_header_top" xfId="32" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="fa_column_header_top_left" xfId="33" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="fa_data_bold_0_grouped" xfId="54" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="fa_data_bold_1_grouped" xfId="55" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="fa_data_bold_2_grouped" xfId="56" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="fa_data_standard_1_grouped" xfId="52" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="fa_data_standard_2_grouped" xfId="53" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="fa_footer_italic" xfId="34" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="fa_row_header_bold" xfId="35" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="fa_row_header_standard" xfId="36" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Good" xfId="37" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="38" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="39" builtinId="17" customBuiltin="1"/>
@@ -1206,6 +1207,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1241,6 +1259,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1416,19 +1451,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="42" width="11.85546875" customWidth="1"/>
+    <col min="3" max="42" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1472,7 +1509,7 @@
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
     </row>
-    <row r="2" spans="1:42" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1555,7 @@
       <c r="AO2" s="8"/>
       <c r="AP2" s="8"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1562,7 +1599,7 @@
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1688,7 +1725,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
@@ -1814,7 +1851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>83</v>
       </c>
@@ -1942,7 +1979,7 @@
         <v>7.8251390000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>85</v>
       </c>
@@ -2070,7 +2107,7 @@
         <v>46.644540999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>87</v>
       </c>
@@ -2198,7 +2235,7 @@
         <v>56.548305999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>90</v>
       </c>
@@ -2326,7 +2363,7 @@
         <v>6.4546580000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>92</v>
       </c>
@@ -2454,7 +2491,7 @@
         <v>17.436174999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>94</v>
       </c>
@@ -2582,7 +2619,7 @@
         <v>20.933489999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -2626,7 +2663,7 @@
       <c r="AO12" s="13"/>
       <c r="AP12" s="13"/>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>96</v>
       </c>
@@ -2754,7 +2791,7 @@
         <v>32.165709999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>98</v>
       </c>
@@ -2882,7 +2919,7 @@
         <v>53.099200000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2926,7 +2963,7 @@
       <c r="AO15" s="13"/>
       <c r="AP15" s="13"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>100</v>
       </c>
@@ -3054,7 +3091,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>102</v>
       </c>
@@ -3182,7 +3219,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>104</v>
       </c>
@@ -3310,7 +3347,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>106</v>
       </c>
@@ -3438,7 +3475,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>108</v>
       </c>
@@ -3566,7 +3603,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>110</v>
       </c>
